--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.07195549999999999</v>
+        <v>0.204759</v>
       </c>
       <c r="N2">
-        <v>0.143911</v>
+        <v>0.409518</v>
       </c>
       <c r="O2">
-        <v>0.03873632163709056</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P2">
-        <v>0.03266745843446078</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q2">
-        <v>2.914034842748</v>
+        <v>10.8557067768255</v>
       </c>
       <c r="R2">
-        <v>11.656139370992</v>
+        <v>43.422827107302</v>
       </c>
       <c r="S2">
-        <v>0.01680489101462858</v>
+        <v>0.1050701571522434</v>
       </c>
       <c r="T2">
-        <v>0.01159376586772574</v>
+        <v>0.08557197419963505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.407406</v>
       </c>
       <c r="O3">
-        <v>0.2525529968289247</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P3">
-        <v>0.3194778509315529</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q3">
-        <v>18.99891887760533</v>
+        <v>24.872145387089</v>
       </c>
       <c r="R3">
-        <v>113.993513265632</v>
+        <v>149.232872322534</v>
       </c>
       <c r="S3">
-        <v>0.1095644967761758</v>
+        <v>0.2407323888034393</v>
       </c>
       <c r="T3">
-        <v>0.1133835192920097</v>
+        <v>0.2940884403626008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,113 +667,113 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03556466666666667</v>
+        <v>0.7764725</v>
       </c>
       <c r="N4">
-        <v>0.106694</v>
+        <v>1.552945</v>
       </c>
       <c r="O4">
-        <v>0.01914578269786067</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P4">
-        <v>0.02421928699130962</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q4">
-        <v>1.440288481594667</v>
+        <v>41.16623826190126</v>
       </c>
       <c r="R4">
-        <v>8.641730889568002</v>
+        <v>164.664953047605</v>
       </c>
       <c r="S4">
-        <v>0.008305971708971896</v>
+        <v>0.3984395684653437</v>
       </c>
       <c r="T4">
-        <v>0.008595487874388545</v>
+        <v>0.3244999474344284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>19.394515</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.095428</v>
+        <v>0.204759</v>
       </c>
       <c r="N5">
-        <v>2.190856</v>
+        <v>0.409518</v>
       </c>
       <c r="O5">
-        <v>0.5897096307895137</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P5">
-        <v>0.4973191577842487</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q5">
-        <v>44.362353951008</v>
+        <v>1.323733832295</v>
       </c>
       <c r="R5">
-        <v>177.449415804032</v>
+        <v>7.942402993769999</v>
       </c>
       <c r="S5">
-        <v>0.2558323985570604</v>
+        <v>0.01281214799241742</v>
       </c>
       <c r="T5">
-        <v>0.1764998611218193</v>
+        <v>0.01565183912108065</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,25 +782,25 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.497736</v>
+        <v>6.464838333333333</v>
       </c>
       <c r="H6">
-        <v>80.99547200000001</v>
+        <v>19.394515</v>
       </c>
       <c r="I6">
-        <v>0.4338277436889532</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J6">
-        <v>0.3549025979779167</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1854883333333334</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N6">
-        <v>0.5564650000000001</v>
+        <v>1.407406</v>
       </c>
       <c r="O6">
-        <v>0.09985526804661032</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P6">
-        <v>0.1263162458584279</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q6">
-        <v>7.511857554413336</v>
+        <v>3.032884086454444</v>
       </c>
       <c r="R6">
-        <v>45.07114532648001</v>
+        <v>27.29595677809</v>
       </c>
       <c r="S6">
-        <v>0.04331998563211659</v>
+        <v>0.02935466240379541</v>
       </c>
       <c r="T6">
-        <v>0.04482996382197333</v>
+        <v>0.05379126751459919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07195549999999999</v>
+        <v>0.7764725</v>
       </c>
       <c r="N7">
-        <v>0.143911</v>
+        <v>1.552945</v>
       </c>
       <c r="O7">
-        <v>0.03873632163709056</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P7">
-        <v>0.03266745843446078</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q7">
-        <v>0.4651806746941666</v>
+        <v>5.019769182779166</v>
       </c>
       <c r="R7">
-        <v>2.791084048165</v>
+        <v>30.118615096675</v>
       </c>
       <c r="S7">
-        <v>0.002682641410345994</v>
+        <v>0.04858531533188939</v>
       </c>
       <c r="T7">
-        <v>0.002776148597888222</v>
+        <v>0.05935378983069507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H8">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4691353333333333</v>
+        <v>0.204759</v>
       </c>
       <c r="N8">
-        <v>1.407406</v>
+        <v>0.409518</v>
       </c>
       <c r="O8">
-        <v>0.2525529968289247</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P8">
-        <v>0.3194778509315529</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q8">
-        <v>3.032884086454444</v>
+        <v>0.139012181907</v>
       </c>
       <c r="R8">
-        <v>27.29595677809</v>
+        <v>0.8340730914419999</v>
       </c>
       <c r="S8">
-        <v>0.01749028041298401</v>
+        <v>0.001345470368656727</v>
       </c>
       <c r="T8">
-        <v>0.02714989259722656</v>
+        <v>0.001643681119267393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H9">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03556466666666667</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N9">
-        <v>0.106694</v>
+        <v>1.407406</v>
       </c>
       <c r="O9">
-        <v>0.01914578269786067</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P9">
-        <v>0.02421928699130962</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q9">
-        <v>0.2299198203788889</v>
+        <v>0.3184989489904444</v>
       </c>
       <c r="R9">
-        <v>2.06927838341</v>
+        <v>2.866490540914</v>
       </c>
       <c r="S9">
-        <v>0.001325920152665909</v>
+        <v>0.00308268593756512</v>
       </c>
       <c r="T9">
-        <v>0.002058205408225126</v>
+        <v>0.005648901072342718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.464838333333333</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H10">
-        <v>19.394515</v>
+        <v>2.036719</v>
       </c>
       <c r="I10">
-        <v>0.06925390168635236</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J10">
-        <v>0.08498208097388053</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.095428</v>
+        <v>0.7764725</v>
       </c>
       <c r="N10">
-        <v>2.190856</v>
+        <v>1.552945</v>
       </c>
       <c r="O10">
-        <v>0.5897096307895137</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P10">
-        <v>0.4973191577842487</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q10">
-        <v>7.081764925806667</v>
+        <v>0.5271520979091666</v>
       </c>
       <c r="R10">
-        <v>42.49058955484</v>
+        <v>3.162912587455</v>
       </c>
       <c r="S10">
-        <v>0.04083969279419213</v>
+        <v>0.005102196928226894</v>
       </c>
       <c r="T10">
-        <v>0.04226321693668309</v>
+        <v>0.006233050502690241</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.464838333333333</v>
+        <v>10.1095025</v>
       </c>
       <c r="H11">
-        <v>19.394515</v>
+        <v>20.219005</v>
       </c>
       <c r="I11">
-        <v>0.06925390168635236</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J11">
-        <v>0.08498208097388053</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1854883333333334</v>
+        <v>0.204759</v>
       </c>
       <c r="N11">
-        <v>0.5564650000000001</v>
+        <v>0.409518</v>
       </c>
       <c r="O11">
-        <v>0.09985526804661032</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P11">
-        <v>0.1263162458584279</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q11">
-        <v>1.199152087719445</v>
+        <v>2.0700116223975</v>
       </c>
       <c r="R11">
-        <v>10.792368789475</v>
+        <v>8.280046489589999</v>
       </c>
       <c r="S11">
-        <v>0.006915366916164313</v>
+        <v>0.02003521750758613</v>
       </c>
       <c r="T11">
-        <v>0.01073461743385752</v>
+        <v>0.01631722234086933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>10.1095025</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>20.219005</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07195549999999999</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N12">
-        <v>0.143911</v>
+        <v>1.407406</v>
       </c>
       <c r="O12">
-        <v>0.03873632163709056</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P12">
-        <v>0.03266745843446078</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q12">
-        <v>0.05499431743616667</v>
+        <v>4.742724825171666</v>
       </c>
       <c r="R12">
-        <v>0.329965904617</v>
+        <v>28.45634895103</v>
       </c>
       <c r="S12">
-        <v>0.0003171456625642652</v>
+        <v>0.04590385987344758</v>
       </c>
       <c r="T12">
-        <v>0.0003282002145566527</v>
+        <v>0.05607801519316253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>10.1095025</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>20.219005</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4691353333333333</v>
+        <v>0.7764725</v>
       </c>
       <c r="N13">
-        <v>1.407406</v>
+        <v>1.552945</v>
       </c>
       <c r="O13">
-        <v>0.2525529968289247</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P13">
-        <v>0.3194778509315529</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q13">
-        <v>0.3585518472091111</v>
+        <v>7.84975067993125</v>
       </c>
       <c r="R13">
-        <v>3.226966624882</v>
+        <v>31.399002719725</v>
       </c>
       <c r="S13">
-        <v>0.002067725693273029</v>
+        <v>0.07597612523092596</v>
       </c>
       <c r="T13">
-        <v>0.003209698710788754</v>
+        <v>0.06187700869837544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H14">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I14">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J14">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.03556466666666667</v>
+        <v>0.204759</v>
       </c>
       <c r="N14">
-        <v>0.106694</v>
+        <v>0.409518</v>
       </c>
       <c r="O14">
-        <v>0.01914578269786067</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P14">
-        <v>0.02421928699130962</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q14">
-        <v>0.02718144642422222</v>
+        <v>0.108295055763</v>
       </c>
       <c r="R14">
-        <v>0.244633017818</v>
+        <v>0.6497703345779999</v>
       </c>
       <c r="S14">
-        <v>0.0001567521561781551</v>
+        <v>0.001048165611116182</v>
       </c>
       <c r="T14">
-        <v>0.0002433239550271175</v>
+        <v>0.00128048158100804</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H15">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I15">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J15">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.095428</v>
+        <v>0.4691353333333333</v>
       </c>
       <c r="N15">
-        <v>2.190856</v>
+        <v>1.407406</v>
       </c>
       <c r="O15">
-        <v>0.5897096307895137</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P15">
-        <v>0.4973191577842487</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q15">
-        <v>0.8372162678386668</v>
+        <v>0.2481211428251111</v>
       </c>
       <c r="R15">
-        <v>5.023297607032</v>
+        <v>2.233090285426</v>
       </c>
       <c r="S15">
-        <v>0.004828126256525881</v>
+        <v>0.002401513600669699</v>
       </c>
       <c r="T15">
-        <v>0.004996417294457893</v>
+        <v>0.004400679481732676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7642823333333334</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H16">
-        <v>2.292847</v>
+        <v>1.586671</v>
       </c>
       <c r="I16">
-        <v>0.008187294228282994</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J16">
-        <v>0.01004670183372562</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1854883333333334</v>
+        <v>0.7764725</v>
       </c>
       <c r="N16">
-        <v>0.5564650000000001</v>
+        <v>1.552945</v>
       </c>
       <c r="O16">
-        <v>0.09985526804661032</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P16">
-        <v>0.1263162458584279</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q16">
-        <v>0.1417654562061111</v>
+        <v>0.4106687993491667</v>
       </c>
       <c r="R16">
-        <v>1.275889105855</v>
+        <v>2.464012796095</v>
       </c>
       <c r="S16">
-        <v>0.000817544459741664</v>
+        <v>0.003974778996173108</v>
       </c>
       <c r="T16">
-        <v>0.001269061658895205</v>
+        <v>0.004855751075211667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.332808</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H17">
-        <v>22.665616</v>
+        <v>1.311262</v>
       </c>
       <c r="I17">
-        <v>0.1214015154896589</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J17">
-        <v>0.09931525558823628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.07195549999999999</v>
+        <v>0.204759</v>
       </c>
       <c r="N17">
-        <v>0.143911</v>
+        <v>0.409518</v>
       </c>
       <c r="O17">
-        <v>0.03873632163709056</v>
+        <v>0.1411773871920449</v>
       </c>
       <c r="P17">
-        <v>0.03266745843446078</v>
+        <v>0.1215234182693749</v>
       </c>
       <c r="Q17">
-        <v>0.8154578660439999</v>
+        <v>0.089497565286</v>
       </c>
       <c r="R17">
-        <v>3.261831464176</v>
+        <v>0.536985391716</v>
       </c>
       <c r="S17">
-        <v>0.004702648151237661</v>
+        <v>0.0008662285600249998</v>
       </c>
       <c r="T17">
-        <v>0.003244376983836557</v>
+        <v>0.00105821990751439</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.332808</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H18">
-        <v>22.665616</v>
+        <v>1.311262</v>
       </c>
       <c r="I18">
-        <v>0.1214015154896589</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J18">
-        <v>0.09931525558823628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,828 +1559,84 @@
         <v>1.407406</v>
       </c>
       <c r="O18">
-        <v>0.2525529968289247</v>
+        <v>0.3234597775896006</v>
       </c>
       <c r="P18">
-        <v>0.3194778509315529</v>
+        <v>0.4176441280061629</v>
       </c>
       <c r="Q18">
-        <v>5.316620658682666</v>
+        <v>0.2050531118191111</v>
       </c>
       <c r="R18">
-        <v>31.899723952096</v>
+        <v>1.845478006372</v>
       </c>
       <c r="S18">
-        <v>0.03066031655648649</v>
+        <v>0.001984666970683494</v>
       </c>
       <c r="T18">
-        <v>0.03172902442004763</v>
+        <v>0.003636824381724852</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4370873333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.311262</v>
+      </c>
+      <c r="I19">
+        <v>0.006135745796503949</v>
+      </c>
+      <c r="J19">
+        <v>0.008707950472300633</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.332808</v>
-      </c>
-      <c r="H19">
-        <v>22.665616</v>
-      </c>
-      <c r="I19">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J19">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03556466666666667</v>
+        <v>0.7764725</v>
       </c>
       <c r="N19">
-        <v>0.106694</v>
+        <v>1.552945</v>
       </c>
       <c r="O19">
-        <v>0.01914578269786067</v>
+        <v>0.5353628352183546</v>
       </c>
       <c r="P19">
-        <v>0.02421928699130962</v>
+        <v>0.4608324537244623</v>
       </c>
       <c r="Q19">
-        <v>0.4030475389173334</v>
+        <v>0.3393862944316667</v>
       </c>
       <c r="R19">
-        <v>2.418285233504</v>
+        <v>2.03631776659</v>
       </c>
       <c r="S19">
-        <v>0.002324327034755976</v>
+        <v>0.003284850265795456</v>
       </c>
       <c r="T19">
-        <v>0.002405344677706761</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>11.332808</v>
-      </c>
-      <c r="H20">
-        <v>22.665616</v>
-      </c>
-      <c r="I20">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J20">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.095428</v>
-      </c>
-      <c r="N20">
-        <v>2.190856</v>
-      </c>
-      <c r="O20">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P20">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q20">
-        <v>12.414275201824</v>
-      </c>
-      <c r="R20">
-        <v>49.657100807296</v>
-      </c>
-      <c r="S20">
-        <v>0.0715916428766942</v>
-      </c>
-      <c r="T20">
-        <v>0.04939137926426906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.332808</v>
-      </c>
-      <c r="H21">
-        <v>22.665616</v>
-      </c>
-      <c r="I21">
-        <v>0.1214015154896589</v>
-      </c>
-      <c r="J21">
-        <v>0.09931525558823628</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N21">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P21">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q21">
-        <v>2.102103667906667</v>
-      </c>
-      <c r="R21">
-        <v>12.61262200744</v>
-      </c>
-      <c r="S21">
-        <v>0.01212258087048461</v>
-      </c>
-      <c r="T21">
-        <v>0.01254513024237626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>33.754358</v>
-      </c>
-      <c r="H22">
-        <v>101.263074</v>
-      </c>
-      <c r="I22">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J22">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.07195549999999999</v>
-      </c>
-      <c r="N22">
-        <v>0.143911</v>
-      </c>
-      <c r="O22">
-        <v>0.03873632163709056</v>
-      </c>
-      <c r="P22">
-        <v>0.03266745843446078</v>
-      </c>
-      <c r="Q22">
-        <v>2.428811707068999</v>
-      </c>
-      <c r="R22">
-        <v>14.572870242414</v>
-      </c>
-      <c r="S22">
-        <v>0.01400666712476856</v>
-      </c>
-      <c r="T22">
-        <v>0.01449488893653444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>33.754358</v>
-      </c>
-      <c r="H23">
-        <v>101.263074</v>
-      </c>
-      <c r="I23">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J23">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>0.4691353333333333</v>
-      </c>
-      <c r="N23">
-        <v>1.407406</v>
-      </c>
-      <c r="O23">
-        <v>0.2525529968289247</v>
-      </c>
-      <c r="P23">
-        <v>0.3194778509315529</v>
-      </c>
-      <c r="Q23">
-        <v>15.83536199178266</v>
-      </c>
-      <c r="R23">
-        <v>142.518257926044</v>
-      </c>
-      <c r="S23">
-        <v>0.09132064193101763</v>
-      </c>
-      <c r="T23">
-        <v>0.141755624369313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>33.754358</v>
-      </c>
-      <c r="H24">
-        <v>101.263074</v>
-      </c>
-      <c r="I24">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J24">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.03556466666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.106694</v>
-      </c>
-      <c r="O24">
-        <v>0.01914578269786067</v>
-      </c>
-      <c r="P24">
-        <v>0.02421928699130962</v>
-      </c>
-      <c r="Q24">
-        <v>1.200462490817333</v>
-      </c>
-      <c r="R24">
-        <v>10.804162417356</v>
-      </c>
-      <c r="S24">
-        <v>0.00692292385437322</v>
-      </c>
-      <c r="T24">
-        <v>0.01074634795251653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>33.754358</v>
-      </c>
-      <c r="H25">
-        <v>101.263074</v>
-      </c>
-      <c r="I25">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J25">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.095428</v>
-      </c>
-      <c r="N25">
-        <v>2.190856</v>
-      </c>
-      <c r="O25">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P25">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q25">
-        <v>36.975468875224</v>
-      </c>
-      <c r="R25">
-        <v>221.852813251344</v>
-      </c>
-      <c r="S25">
-        <v>0.213233114288011</v>
-      </c>
-      <c r="T25">
-        <v>0.2206656502695424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>33.754358</v>
-      </c>
-      <c r="H26">
-        <v>101.263074</v>
-      </c>
-      <c r="I26">
-        <v>0.3615900150766246</v>
-      </c>
-      <c r="J26">
-        <v>0.4437103353361534</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N26">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O26">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P26">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q26">
-        <v>6.261039608156667</v>
-      </c>
-      <c r="R26">
-        <v>56.34935647341</v>
-      </c>
-      <c r="S26">
-        <v>0.03610666787845422</v>
-      </c>
-      <c r="T26">
-        <v>0.05604782380824706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.535784</v>
-      </c>
-      <c r="H27">
-        <v>1.607352</v>
-      </c>
-      <c r="I27">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J27">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.07195549999999999</v>
-      </c>
-      <c r="N27">
-        <v>0.143911</v>
-      </c>
-      <c r="O27">
-        <v>0.03873632163709056</v>
-      </c>
-      <c r="P27">
-        <v>0.03266745843446078</v>
-      </c>
-      <c r="Q27">
-        <v>0.038552605612</v>
-      </c>
-      <c r="R27">
-        <v>0.231315633672</v>
-      </c>
-      <c r="S27">
-        <v>0.0002223282735455078</v>
-      </c>
-      <c r="T27">
-        <v>0.000230077833919169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.535784</v>
-      </c>
-      <c r="H28">
-        <v>1.607352</v>
-      </c>
-      <c r="I28">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J28">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.4691353333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.407406</v>
-      </c>
-      <c r="O28">
-        <v>0.2525529968289247</v>
-      </c>
-      <c r="P28">
-        <v>0.3194778509315529</v>
-      </c>
-      <c r="Q28">
-        <v>0.2513552054346667</v>
-      </c>
-      <c r="R28">
-        <v>2.262196848912</v>
-      </c>
-      <c r="S28">
-        <v>0.001449535458987795</v>
-      </c>
-      <c r="T28">
-        <v>0.002250091542167325</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.535784</v>
-      </c>
-      <c r="H29">
-        <v>1.607352</v>
-      </c>
-      <c r="I29">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J29">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.03556466666666667</v>
-      </c>
-      <c r="N29">
-        <v>0.106694</v>
-      </c>
-      <c r="O29">
-        <v>0.01914578269786067</v>
-      </c>
-      <c r="P29">
-        <v>0.02421928699130962</v>
-      </c>
-      <c r="Q29">
-        <v>0.01905497936533334</v>
-      </c>
-      <c r="R29">
-        <v>0.171494814288</v>
-      </c>
-      <c r="S29">
-        <v>0.0001098877909155168</v>
-      </c>
-      <c r="T29">
-        <v>0.0001705771234455449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.535784</v>
-      </c>
-      <c r="H30">
-        <v>1.607352</v>
-      </c>
-      <c r="I30">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J30">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.095428</v>
-      </c>
-      <c r="N30">
-        <v>2.190856</v>
-      </c>
-      <c r="O30">
-        <v>0.5897096307895137</v>
-      </c>
-      <c r="P30">
-        <v>0.4973191577842487</v>
-      </c>
-      <c r="Q30">
-        <v>0.586912795552</v>
-      </c>
-      <c r="R30">
-        <v>3.521476773312</v>
-      </c>
-      <c r="S30">
-        <v>0.003384656017030088</v>
-      </c>
-      <c r="T30">
-        <v>0.003502632897477016</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.535784</v>
-      </c>
-      <c r="H31">
-        <v>1.607352</v>
-      </c>
-      <c r="I31">
-        <v>0.00573952983012784</v>
-      </c>
-      <c r="J31">
-        <v>0.007043028290087628</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.1854883333333334</v>
-      </c>
-      <c r="N31">
-        <v>0.5564650000000001</v>
-      </c>
-      <c r="O31">
-        <v>0.09985526804661032</v>
-      </c>
-      <c r="P31">
-        <v>0.1263162458584279</v>
-      </c>
-      <c r="Q31">
-        <v>0.0993816811866667</v>
-      </c>
-      <c r="R31">
-        <v>0.8944351306800002</v>
-      </c>
-      <c r="S31">
-        <v>0.0005731222896489313</v>
-      </c>
-      <c r="T31">
-        <v>0.0008896488930785722</v>
+        <v>0.004012906183061392</v>
       </c>
     </row>
   </sheetData>
